--- a/EPC.xlsx
+++ b/EPC.xlsx
@@ -140,9 +140,6 @@
     <t>FFFT</t>
   </si>
   <si>
-    <t>Dimitar, neshtobe</t>
-  </si>
-  <si>
     <t>TTTFT</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>ACEGIJKMOQLS-T</t>
+  </si>
+  <si>
+    <t>Dimitar, password</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +585,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>

--- a/EPC.xlsx
+++ b/EPC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslez\Desktop\SI_Lab2_183272\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
